--- a/data/001210.SZ-20210824.xlsx
+++ b/data/001210.SZ-20210824.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1244,6 +1244,48 @@
       </c>
       <c r="L19" t="n">
         <v>96317.75599999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001210.SZ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20210824</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>37.52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>39.48</v>
+      </c>
+      <c r="F20" t="n">
+        <v>37.28</v>
+      </c>
+      <c r="G20" t="n">
+        <v>38.73</v>
+      </c>
+      <c r="H20" t="n">
+        <v>37.79</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.4874</v>
+      </c>
+      <c r="K20" t="n">
+        <v>33512.14</v>
+      </c>
+      <c r="L20" t="n">
+        <v>129270.107</v>
       </c>
     </row>
   </sheetData>
